--- a/com.Ecommerce/src/main/resources/TestData/M2DemoData.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/M2DemoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\OneDrive\Desktop\M2Project\com.Ecommerce\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D2E539-1733-4183-A7E2-5A2AFECDCDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3DA5C7-207F-4FD1-BB75-68B9D0A02A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{969C6905-DF97-420C-883B-3F4D3CACA9A9}"/>
   </bookViews>
@@ -105,19 +105,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>j.srvfdfrdmith@example.com</t>
-  </si>
-  <si>
-    <t>elendrcdcrtgba.rod@testmail.org</t>
-  </si>
-  <si>
-    <t>mchddergrtn_dev@provider.net</t>
-  </si>
-  <si>
-    <t>sarvdfcfvah.farsi@webmail.com</t>
-  </si>
-  <si>
-    <t>liafvddecrtfbm.oc@sample.io</t>
+    <t>j.srvfdfedfvrfrdmith@example.com</t>
+  </si>
+  <si>
+    <t>elendrcdvrfcfvcrtgba.rod@testmail.org</t>
+  </si>
+  <si>
+    <t>mchddecvdfvdfrgrtn_dev@provider.net</t>
+  </si>
+  <si>
+    <t>sarvdfcfcdfvvah.farsi@webmail.com</t>
+  </si>
+  <si>
+    <t>liafvddevfdvfcrtfbm.oc@sample.io</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60.75" thickBot="1">
+    <row r="2" spans="1:4" ht="75.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75.75" thickBot="1">
+    <row r="3" spans="1:4" ht="90.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75.75" thickBot="1">
+    <row r="4" spans="1:4" ht="90.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75.75" thickBot="1">
+    <row r="5" spans="1:4" ht="90.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60.75" thickBot="1">
+    <row r="6" spans="1:4" ht="75.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
